--- a/exer/mvexer5.xlsx
+++ b/exer/mvexer5.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="954" activeTab="1"/>
+    <workbookView windowWidth="20235" windowHeight="11895" tabRatio="954" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="E2.2" sheetId="1" r:id="rId1"/>
@@ -33,12 +33,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="240">
   <si>
     <t>X</t>
-  </si>
-  <si>
-    <t>编号</t>
   </si>
   <si>
     <t>是否抽烟</t>
@@ -1210,6 +1207,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1269,13 +1273,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -1329,8 +1326,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1343,9 +1341,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1379,7 +1376,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1397,13 +1418,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1415,37 +1430,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1463,13 +1454,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1481,13 +1502,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1505,37 +1538,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1553,13 +1556,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1806,10 +1803,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
@@ -1818,16 +1815,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1837,56 +1834,56 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="15" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1895,58 +1892,58 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2949,21 +2946,21 @@
   <sheetData>
     <row r="1" ht="15" spans="1:15">
       <c r="A1" s="37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B1" s="37"/>
       <c r="C1" s="37"/>
       <c r="D1" s="37"/>
       <c r="E1" s="46"/>
       <c r="F1" s="47" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G1" s="37"/>
       <c r="H1" s="37"/>
       <c r="I1" s="37"/>
       <c r="J1" s="46"/>
       <c r="K1" s="47" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L1" s="37"/>
       <c r="M1" s="37"/>
@@ -2972,49 +2969,49 @@
     </row>
     <row r="2" ht="15.75" spans="1:15">
       <c r="A2" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="48" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="C2" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="48" t="s">
+      <c r="D2" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="D2" s="48" t="s">
+      <c r="E2" s="49" t="s">
         <v>77</v>
       </c>
-      <c r="E2" s="49" t="s">
-        <v>78</v>
-      </c>
       <c r="F2" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2" s="48" t="s">
         <v>74</v>
       </c>
-      <c r="G2" s="48" t="s">
+      <c r="H2" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="H2" s="48" t="s">
+      <c r="I2" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="I2" s="48" t="s">
+      <c r="J2" s="49" t="s">
         <v>77</v>
       </c>
-      <c r="J2" s="49" t="s">
-        <v>78</v>
-      </c>
       <c r="K2" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="L2" s="48" t="s">
         <v>74</v>
       </c>
-      <c r="L2" s="48" t="s">
+      <c r="M2" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="M2" s="48" t="s">
+      <c r="N2" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="N2" s="48" t="s">
+      <c r="O2" s="48" t="s">
         <v>77</v>
-      </c>
-      <c r="O2" s="48" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -5391,36 +5388,36 @@
   <sheetData>
     <row r="1" ht="15" spans="1:9">
       <c r="A1" s="42" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="42" t="s">
         <v>79</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="D1" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="E1" s="42" t="s">
         <v>81</v>
       </c>
-      <c r="E1" s="42" t="s">
+      <c r="F1" s="42" t="s">
         <v>82</v>
       </c>
-      <c r="F1" s="42" t="s">
+      <c r="G1" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="G1" s="42" t="s">
+      <c r="H1" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="H1" s="42" t="s">
+      <c r="I1" s="42" t="s">
         <v>85</v>
-      </c>
-      <c r="I1" s="42" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="44" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B2" s="44">
         <v>2671.52</v>
@@ -5449,7 +5446,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B3" s="44">
         <v>2398.47</v>
@@ -5478,7 +5475,7 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="44" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B4" s="44">
         <v>1533.42</v>
@@ -5507,7 +5504,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="44" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B5" s="44">
         <v>1400.26</v>
@@ -5536,7 +5533,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="44" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B6" s="44">
         <v>1249.58</v>
@@ -5565,7 +5562,7 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="44" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B7" s="44">
         <v>1749.76</v>
@@ -5594,7 +5591,7 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="44" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B8" s="44">
         <v>1438.94</v>
@@ -5623,7 +5620,7 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="44" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B9" s="44">
         <v>1437.24</v>
@@ -5652,7 +5649,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="44" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B10" s="44">
         <v>3415.5</v>
@@ -5681,7 +5678,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="44" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B11" s="44">
         <v>2070.29</v>
@@ -5710,7 +5707,7 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="44" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B12" s="44">
         <v>2704.43</v>
@@ -5739,7 +5736,7 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="44" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B13" s="44">
         <v>1938.62</v>
@@ -5768,7 +5765,7 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="44" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B14" s="44">
         <v>2610.66</v>
@@ -5797,7 +5794,7 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="44" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B15" s="44">
         <v>1579.21</v>
@@ -5826,7 +5823,7 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="44" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B16" s="44">
         <v>1645.74</v>
@@ -5855,7 +5852,7 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="44" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B17" s="44">
         <v>1439.32</v>
@@ -5884,7 +5881,7 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="44" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B18" s="44">
         <v>1731.43</v>
@@ -5913,7 +5910,7 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="44" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B19" s="44">
         <v>1986.57</v>
@@ -5942,7 +5939,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="44" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B20" s="44">
         <v>3186.77</v>
@@ -5971,7 +5968,7 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="44" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B21" s="44">
         <v>2188.14</v>
@@ -6000,7 +5997,7 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="44" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B22" s="44">
         <v>2237.13</v>
@@ -6029,7 +6026,7 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="44" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B23" s="44">
         <v>1925.3</v>
@@ -6058,7 +6055,7 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="44" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B24" s="44">
         <v>1918.76</v>
@@ -6087,7 +6084,7 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="44" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B25" s="44">
         <v>1971.54</v>
@@ -6116,7 +6113,7 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="44" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B26" s="44">
         <v>2592.26</v>
@@ -6145,7 +6142,7 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="44" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B27" s="44">
         <v>1461.62</v>
@@ -6174,7 +6171,7 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="44" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B28" s="44">
         <v>1443.01</v>
@@ -6203,7 +6200,7 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="44" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B29" s="44">
         <v>1651.16</v>
@@ -6232,7 +6229,7 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="44" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B30" s="44">
         <v>1377.25</v>
@@ -6261,7 +6258,7 @@
     </row>
     <row r="31" ht="15" spans="1:9">
       <c r="A31" s="45" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B31" s="45">
         <v>1531.88</v>
@@ -6307,33 +6304,33 @@
   <sheetData>
     <row r="1" ht="15" spans="1:8">
       <c r="A1" s="42" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="C1" s="43" t="s">
-        <v>80</v>
-      </c>
       <c r="D1" s="43" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E1" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="F1" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="F1" s="43" t="s">
+      <c r="G1" s="43" t="s">
         <v>83</v>
       </c>
-      <c r="G1" s="43" t="s">
+      <c r="H1" s="43" t="s">
         <v>84</v>
-      </c>
-      <c r="H1" s="43" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="44" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B2" s="44">
         <v>5408.8</v>
@@ -6359,7 +6356,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="44" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B3" s="44">
         <v>3130</v>
@@ -6385,7 +6382,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" s="44">
         <v>3001.7</v>
@@ -6411,7 +6408,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="44" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" s="44">
         <v>2239.4</v>
@@ -6437,7 +6434,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B6" s="44">
         <v>2022.6</v>
@@ -6463,7 +6460,7 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="44" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B7" s="44">
         <v>1971.1</v>
@@ -6489,7 +6486,7 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="44" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B8" s="44">
         <v>1780</v>
@@ -6515,7 +6512,7 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="44" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B9" s="44">
         <v>1663.2</v>
@@ -6541,7 +6538,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="44" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B10" s="44">
         <v>1518.2</v>
@@ -6567,7 +6564,7 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="44" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B11" s="44">
         <v>1500.3</v>
@@ -6593,7 +6590,7 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="44" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B12" s="44">
         <v>1493.1</v>
@@ -6619,7 +6616,7 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="44" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B13" s="44">
         <v>1406</v>
@@ -6645,7 +6642,7 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="44" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B14" s="44">
         <v>1400</v>
@@ -6671,7 +6668,7 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="44" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B15" s="44">
         <v>1295</v>
@@ -6697,7 +6694,7 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="44" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B16" s="44">
         <v>1232.1</v>
@@ -6723,7 +6720,7 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="44" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B17" s="44">
         <v>1200</v>
@@ -6749,7 +6746,7 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="44" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B18" s="44">
         <v>1184</v>
@@ -6775,7 +6772,7 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="44" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B19" s="44">
         <v>1160.2</v>
@@ -6801,7 +6798,7 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="44" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B20" s="44">
         <v>1150</v>
@@ -6827,7 +6824,7 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="44" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B21" s="44">
         <v>926.8</v>
@@ -6853,7 +6850,7 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="44" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B22" s="44">
         <v>823.5</v>
@@ -6879,7 +6876,7 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="44" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B23" s="44">
         <v>810.9</v>
@@ -6905,7 +6902,7 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="44" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B24" s="44">
         <v>730</v>
@@ -6931,7 +6928,7 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="44" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B25" s="44">
         <v>648.3</v>
@@ -6957,7 +6954,7 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="44" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B26" s="44">
         <v>552</v>
@@ -6983,7 +6980,7 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="44" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B27" s="44">
         <v>432.2</v>
@@ -7009,7 +7006,7 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="44" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B28" s="44">
         <v>412.4</v>
@@ -7035,7 +7032,7 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="44" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B29" s="44">
         <v>386.8</v>
@@ -7061,7 +7058,7 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="44" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B30" s="44">
         <v>356</v>
@@ -7087,7 +7084,7 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="44" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B31" s="44">
         <v>354</v>
@@ -7113,7 +7110,7 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="44" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B32" s="44">
         <v>336.4</v>
@@ -7139,7 +7136,7 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="44" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B33" s="44">
         <v>300</v>
@@ -7165,7 +7162,7 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="44" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B34" s="44">
         <v>157.9</v>
@@ -7191,7 +7188,7 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="44" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B35" s="44">
         <v>133</v>
@@ -7217,7 +7214,7 @@
     </row>
     <row r="36" ht="15" spans="1:8">
       <c r="A36" s="45" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B36" s="45">
         <v>121.3</v>
@@ -7260,33 +7257,33 @@
   <sheetData>
     <row r="1" ht="15" spans="1:8">
       <c r="A1" s="37" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="D1" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="E1" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="F1" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="G1" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="G1" s="37" t="s">
-        <v>84</v>
-      </c>
       <c r="H1" s="37" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="38" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="39">
         <v>11.85</v>
@@ -7312,7 +7309,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="38" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="39">
         <v>10.1</v>
@@ -7338,7 +7335,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="38" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="39">
         <v>1.66</v>
@@ -7364,7 +7361,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="38" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="39">
         <v>1.6</v>
@@ -7390,7 +7387,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="38" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" s="39">
         <v>4.04</v>
@@ -7416,7 +7413,7 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="38" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" s="39">
         <v>0.59</v>
@@ -7442,7 +7439,7 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="38" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8" s="39">
         <v>0.2</v>
@@ -7468,7 +7465,7 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="38" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9" s="39">
         <v>0.3</v>
@@ -7494,7 +7491,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="38" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B10" s="39">
         <v>0.89</v>
@@ -7520,7 +7517,7 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="38" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B11" s="39">
         <v>0.15</v>
@@ -7546,7 +7543,7 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="38" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B12" s="39">
         <v>5.31</v>
@@ -7572,7 +7569,7 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="38" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B13" s="39">
         <v>2</v>
@@ -7598,7 +7595,7 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="38" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14" s="39">
         <v>1.09</v>
@@ -7624,7 +7621,7 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="38" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B15" s="39">
         <v>0.35</v>
@@ -7650,7 +7647,7 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B16" s="39">
         <v>0.65</v>
@@ -7676,7 +7673,7 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B17" s="39">
         <v>0.43</v>
@@ -7702,7 +7699,7 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="38" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" s="39">
         <v>0.3</v>
@@ -7728,7 +7725,7 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="38" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B19" s="39">
         <v>0.18</v>
@@ -7754,7 +7751,7 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="38" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B20" s="39">
         <v>7.41</v>
@@ -7780,7 +7777,7 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="38" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B21" s="39">
         <v>0.33</v>
@@ -7806,7 +7803,7 @@
     </row>
     <row r="22" ht="15" spans="1:8">
       <c r="A22" s="40" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B22" s="41">
         <v>0.23</v>
@@ -7853,75 +7850,75 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:22">
       <c r="A1" s="35" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="H1" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="I1" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="J1" s="35" t="s">
         <v>148</v>
       </c>
-      <c r="B1" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="C1" s="35" t="s">
-        <v>80</v>
-      </c>
-      <c r="D1" s="35" t="s">
-        <v>81</v>
-      </c>
-      <c r="E1" s="35" t="s">
-        <v>82</v>
-      </c>
-      <c r="F1" s="35" t="s">
-        <v>83</v>
-      </c>
-      <c r="G1" s="35" t="s">
-        <v>84</v>
-      </c>
-      <c r="H1" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="I1" s="35" t="s">
-        <v>86</v>
-      </c>
-      <c r="J1" s="35" t="s">
+      <c r="K1" s="35" t="s">
         <v>149</v>
       </c>
-      <c r="K1" s="35" t="s">
+      <c r="L1" s="35" t="s">
         <v>150</v>
       </c>
-      <c r="L1" s="35" t="s">
+      <c r="M1" s="35" t="s">
         <v>151</v>
       </c>
-      <c r="M1" s="35" t="s">
+      <c r="N1" s="35" t="s">
         <v>152</v>
       </c>
-      <c r="N1" s="35" t="s">
+      <c r="O1" s="35" t="s">
         <v>153</v>
       </c>
-      <c r="O1" s="35" t="s">
+      <c r="P1" s="35" t="s">
         <v>154</v>
       </c>
-      <c r="P1" s="35" t="s">
+      <c r="Q1" s="35" t="s">
         <v>155</v>
       </c>
-      <c r="Q1" s="35" t="s">
+      <c r="R1" s="35" t="s">
         <v>156</v>
       </c>
-      <c r="R1" s="35" t="s">
+      <c r="S1" s="35" t="s">
         <v>157</v>
       </c>
-      <c r="S1" s="35" t="s">
+      <c r="T1" s="35" t="s">
         <v>158</v>
       </c>
-      <c r="T1" s="35" t="s">
+      <c r="U1" s="35" t="s">
         <v>159</v>
       </c>
-      <c r="U1" s="35" t="s">
+      <c r="V1" s="35" t="s">
         <v>160</v>
-      </c>
-      <c r="V1" s="35" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:22">
       <c r="A2" s="35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B2" s="35">
         <v>1.33</v>
@@ -7989,7 +7986,7 @@
     </row>
     <row r="3" customHeight="1" spans="1:22">
       <c r="A3" s="35" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B3" s="36">
         <v>0.76</v>
@@ -8057,7 +8054,7 @@
     </row>
     <row r="4" customHeight="1" spans="1:22">
       <c r="A4" s="36" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B4" s="36">
         <v>1.21</v>
@@ -8125,7 +8122,7 @@
     </row>
     <row r="5" customHeight="1" spans="1:22">
       <c r="A5" s="36" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B5" s="36">
         <v>0.79</v>
@@ -8193,7 +8190,7 @@
     </row>
     <row r="6" customHeight="1" spans="1:22">
       <c r="A6" s="36" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B6" s="36">
         <v>0.75</v>
@@ -8261,7 +8258,7 @@
     </row>
     <row r="7" customHeight="1" spans="1:22">
       <c r="A7" s="36" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B7" s="36">
         <v>1.11</v>
@@ -8329,7 +8326,7 @@
     </row>
     <row r="8" customHeight="1" spans="1:22">
       <c r="A8" s="36" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B8" s="36">
         <v>1.19</v>
@@ -8397,7 +8394,7 @@
     </row>
     <row r="9" customHeight="1" spans="1:22">
       <c r="A9" s="36" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B9" s="36">
         <v>1.04</v>
@@ -8465,7 +8462,7 @@
     </row>
     <row r="10" customHeight="1" spans="1:22">
       <c r="A10" s="36" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B10" s="36">
         <v>0.22</v>
@@ -8533,7 +8530,7 @@
     </row>
     <row r="11" customHeight="1" spans="1:22">
       <c r="A11" s="36" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B11" s="36">
         <v>1.57</v>
@@ -8601,7 +8598,7 @@
     </row>
     <row r="12" customHeight="1" spans="1:22">
       <c r="A12" s="36" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B12" s="36">
         <v>1.98</v>
@@ -8669,7 +8666,7 @@
     </row>
     <row r="13" customHeight="1" spans="1:22">
       <c r="A13" s="36" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B13" s="36">
         <v>1.36</v>
@@ -8737,7 +8734,7 @@
     </row>
     <row r="14" customHeight="1" spans="1:22">
       <c r="A14" s="36" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B14" s="36">
         <v>0.92</v>
@@ -8805,7 +8802,7 @@
     </row>
     <row r="15" customHeight="1" spans="1:22">
       <c r="A15" s="36" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B15" s="36">
         <v>4.037</v>
@@ -8873,7 +8870,7 @@
     </row>
     <row r="16" customHeight="1" spans="1:22">
       <c r="A16" s="36" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B16" s="36">
         <v>1.95</v>
@@ -8941,7 +8938,7 @@
     </row>
     <row r="17" customHeight="1" spans="1:22">
       <c r="A17" s="36" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B17" s="36">
         <v>1.91</v>
@@ -9009,7 +9006,7 @@
     </row>
     <row r="18" customHeight="1" spans="1:22">
       <c r="A18" s="36" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B18" s="36">
         <v>1.47</v>
@@ -9077,7 +9074,7 @@
     </row>
     <row r="19" customHeight="1" spans="1:22">
       <c r="A19" s="36" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B19" s="36">
         <v>5.47</v>
@@ -9145,7 +9142,7 @@
     </row>
     <row r="20" customHeight="1" spans="1:22">
       <c r="A20" s="36" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B20" s="36">
         <v>1.49</v>
@@ -9213,7 +9210,7 @@
     </row>
     <row r="21" customHeight="1" spans="1:22">
       <c r="A21" s="36" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B21" s="36">
         <v>0.78</v>
@@ -9281,7 +9278,7 @@
     </row>
     <row r="22" customHeight="1" spans="1:22">
       <c r="A22" s="36" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B22" s="36">
         <v>85</v>
@@ -9349,7 +9346,7 @@
     </row>
     <row r="23" customHeight="1" spans="1:22">
       <c r="A23" s="36" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B23" s="36">
         <v>2.74</v>
@@ -9417,7 +9414,7 @@
     </row>
     <row r="24" customHeight="1" spans="1:22">
       <c r="A24" s="36" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B24" s="36">
         <v>1.24</v>
@@ -9503,24 +9500,24 @@
     <row r="1" spans="1:6">
       <c r="A1" s="25"/>
       <c r="B1" s="26" t="s">
+        <v>184</v>
+      </c>
+      <c r="C1" s="27" t="s">
         <v>185</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="D1" s="27" t="s">
         <v>186</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="E1" s="27" t="s">
         <v>187</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="F1" s="27" t="s">
         <v>188</v>
-      </c>
-      <c r="F1" s="27" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="28" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B2" s="29">
         <v>121</v>
@@ -9540,7 +9537,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="30" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B3" s="29">
         <v>188</v>
@@ -9560,7 +9557,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="30" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B4" s="29">
         <v>112</v>
@@ -9580,7 +9577,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="31" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B5" s="32">
         <v>86</v>
@@ -9620,21 +9617,21 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:4">
       <c r="A1" s="23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" s="23" t="s">
+        <v>193</v>
+      </c>
+      <c r="C1" s="23" t="s">
         <v>194</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="D1" s="23" t="s">
         <v>195</v>
-      </c>
-      <c r="D1" s="23" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:4">
       <c r="A2" s="23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="24">
         <v>2706</v>
@@ -9648,7 +9645,7 @@
     </row>
     <row r="3" customHeight="1" spans="1:4">
       <c r="A3" s="23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="24">
         <v>14583</v>
@@ -9662,7 +9659,7 @@
     </row>
     <row r="4" customHeight="1" spans="1:4">
       <c r="A4" s="23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="24">
         <v>401</v>
@@ -9676,7 +9673,7 @@
     </row>
     <row r="5" customHeight="1" spans="1:4">
       <c r="A5" s="23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="24">
         <v>160</v>
@@ -9690,7 +9687,7 @@
     </row>
     <row r="6" customHeight="1" spans="1:4">
       <c r="A6" s="23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" s="24">
         <v>85</v>
@@ -9704,7 +9701,7 @@
     </row>
     <row r="7" customHeight="1" spans="1:4">
       <c r="A7" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B7" s="24">
         <v>10</v>
@@ -9718,7 +9715,7 @@
     </row>
     <row r="8" customHeight="1" spans="1:4">
       <c r="A8" s="23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8" s="24">
         <v>30</v>
@@ -9732,7 +9729,7 @@
     </row>
     <row r="9" customHeight="1" spans="1:4">
       <c r="A9" s="23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B9" s="24">
         <v>75</v>
@@ -9746,7 +9743,7 @@
     </row>
     <row r="10" customHeight="1" spans="1:4">
       <c r="A10" s="23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B10" s="24">
         <v>28</v>
@@ -9760,7 +9757,7 @@
     </row>
     <row r="11" customHeight="1" spans="1:4">
       <c r="A11" s="23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B11" s="24">
         <v>553</v>
@@ -9774,7 +9771,7 @@
     </row>
     <row r="12" customHeight="1" spans="1:4">
       <c r="A12" s="23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B12" s="24">
         <v>192</v>
@@ -9788,7 +9785,7 @@
     </row>
     <row r="13" customHeight="1" spans="1:4">
       <c r="A13" s="23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" s="24">
         <v>200</v>
@@ -9802,7 +9799,7 @@
     </row>
     <row r="14" customHeight="1" spans="1:4">
       <c r="A14" s="23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14" s="24">
         <v>2016</v>
@@ -9816,7 +9813,7 @@
     </row>
     <row r="15" customHeight="1" spans="1:4">
       <c r="A15" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B15" s="24">
         <v>24</v>
@@ -9830,7 +9827,7 @@
     </row>
     <row r="16" customHeight="1" spans="1:4">
       <c r="A16" s="23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B16" s="24">
         <v>112</v>
@@ -9844,7 +9841,7 @@
     </row>
     <row r="17" customHeight="1" spans="1:4">
       <c r="A17" s="23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B17" s="24">
         <v>22</v>
@@ -9858,7 +9855,7 @@
     </row>
     <row r="18" customHeight="1" spans="1:4">
       <c r="A18" s="23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" s="24">
         <v>41</v>
@@ -9872,7 +9869,7 @@
     </row>
     <row r="19" customHeight="1" spans="1:4">
       <c r="A19" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B19" s="24">
         <v>20</v>
@@ -9886,7 +9883,7 @@
     </row>
     <row r="20" customHeight="1" spans="1:4">
       <c r="A20" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B20" s="24">
         <v>28</v>
@@ -9900,7 +9897,7 @@
     </row>
     <row r="21" customHeight="1" spans="1:4">
       <c r="A21" s="23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B21" s="24">
         <v>32</v>
@@ -9914,7 +9911,7 @@
     </row>
     <row r="22" customHeight="1" spans="1:4">
       <c r="A22" s="23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B22" s="24">
         <v>29</v>
@@ -9949,34 +9946,34 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:10">
       <c r="A1" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1" s="20" t="s">
         <v>197</v>
       </c>
-      <c r="B1" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="D1" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="E1" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="F1" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="G1" s="20" t="s">
+      <c r="H1" s="20" t="s">
         <v>198</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="I1" s="20" t="s">
         <v>199</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="J1" s="20" t="s">
         <v>200</v>
-      </c>
-      <c r="J1" s="20" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:10">
@@ -10613,36 +10610,36 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:9">
       <c r="A1" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="13" t="s">
-        <v>36</v>
-      </c>
       <c r="D1" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="E1" s="13" t="s">
-        <v>55</v>
-      </c>
       <c r="F1" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="G1" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="H1" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="I1" s="13" t="s">
         <v>204</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B2" s="14">
         <v>105.4</v>
@@ -10671,7 +10668,7 @@
     </row>
     <row r="3" customHeight="1" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B3" s="14">
         <v>22.785</v>
@@ -10700,7 +10697,7 @@
     </row>
     <row r="4" customHeight="1" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B4" s="14">
         <v>98.79</v>
@@ -10729,7 +10726,7 @@
     </row>
     <row r="5" customHeight="1" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B5" s="14">
         <v>81.81</v>
@@ -10758,7 +10755,7 @@
     </row>
     <row r="6" customHeight="1" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B6" s="14">
         <v>149.208</v>
@@ -10787,7 +10784,7 @@
     </row>
     <row r="7" customHeight="1" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B7" s="14">
         <v>271.519</v>
@@ -10816,7 +10813,7 @@
     </row>
     <row r="8" customHeight="1" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B8" s="14">
         <v>83.019</v>
@@ -10845,7 +10842,7 @@
     </row>
     <row r="9" customHeight="1" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B9" s="14">
         <v>119.629</v>
@@ -10874,7 +10871,7 @@
     </row>
     <row r="10" customHeight="1" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B10" s="14">
         <v>74.284</v>
@@ -10903,7 +10900,7 @@
     </row>
     <row r="11" customHeight="1" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B11" s="14">
         <v>66.594</v>
@@ -10932,7 +10929,7 @@
     </row>
     <row r="12" customHeight="1" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B12" s="14">
         <v>130.364</v>
@@ -10961,7 +10958,7 @@
     </row>
     <row r="13" customHeight="1" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B13" s="14">
         <v>181.111</v>
@@ -10990,7 +10987,7 @@
     </row>
     <row r="14" customHeight="1" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B14" s="14">
         <v>140.835</v>
@@ -11019,7 +11016,7 @@
     </row>
     <row r="15" customHeight="1" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B15" s="14">
         <v>202.941</v>
@@ -11048,7 +11045,7 @@
     </row>
     <row r="16" customHeight="1" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B16" s="14">
         <v>207.475</v>
@@ -11077,7 +11074,7 @@
     </row>
     <row r="17" customHeight="1" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B17" s="14">
         <v>124.844</v>
@@ -11106,7 +11103,7 @@
     </row>
     <row r="18" customHeight="1" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B18" s="14">
         <v>295.328</v>
@@ -11135,7 +11132,7 @@
     </row>
     <row r="19" customHeight="1" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B19" s="14">
         <v>133.206</v>
@@ -11164,7 +11161,7 @@
     </row>
     <row r="20" customHeight="1" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B20" s="14">
         <v>105.304</v>
@@ -11193,7 +11190,7 @@
     </row>
     <row r="21" customHeight="1" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B21" s="14">
         <v>144.572</v>
@@ -11222,7 +11219,7 @@
     </row>
     <row r="22" customHeight="1" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B22" s="14">
         <v>32.315</v>
@@ -11251,7 +11248,7 @@
     </row>
     <row r="23" customHeight="1" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B23" s="14">
         <v>137.902</v>
@@ -11280,7 +11277,7 @@
     </row>
     <row r="24" customHeight="1" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B24" s="14">
         <v>151.035</v>
@@ -11309,7 +11306,7 @@
     </row>
     <row r="25" customHeight="1" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B25" s="14">
         <v>60.578</v>
@@ -11338,7 +11335,7 @@
     </row>
     <row r="26" customHeight="1" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B26" s="14">
         <v>163.984</v>
@@ -11367,7 +11364,7 @@
     </row>
     <row r="27" customHeight="1" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B27" s="14">
         <v>108.257</v>
@@ -11396,7 +11393,7 @@
     </row>
     <row r="28" customHeight="1" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B28" s="14">
         <v>217.588</v>
@@ -11425,7 +11422,7 @@
     </row>
     <row r="29" customHeight="1" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B29" s="14">
         <v>97.887</v>
@@ -11454,7 +11451,7 @@
     </row>
     <row r="30" customHeight="1" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B30" s="14">
         <v>59.104</v>
@@ -11483,7 +11480,7 @@
     </row>
     <row r="31" customHeight="1" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B31" s="14">
         <v>45.658</v>
@@ -11512,7 +11509,7 @@
     </row>
     <row r="32" customHeight="1" spans="1:9">
       <c r="A32" s="16" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B32" s="17">
         <v>211.925</v>
@@ -11563,30 +11560,30 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:7">
       <c r="A1" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>83</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="6">
         <v>53809</v>
@@ -11609,7 +11606,7 @@
     </row>
     <row r="3" customHeight="1" spans="1:7">
       <c r="A3" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="6">
         <v>60801</v>
@@ -11632,7 +11629,7 @@
     </row>
     <row r="4" customHeight="1" spans="1:7">
       <c r="A4" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="6">
         <v>45284</v>
@@ -11655,7 +11652,7 @@
     </row>
     <row r="5" customHeight="1" spans="1:7">
       <c r="A5" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="6">
         <v>13196</v>
@@ -11678,7 +11675,7 @@
     </row>
     <row r="6" customHeight="1" spans="1:7">
       <c r="A6" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" s="6">
         <v>41266</v>
@@ -11701,7 +11698,7 @@
     </row>
     <row r="7" customHeight="1" spans="1:7">
       <c r="A7" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" s="6">
         <v>11708</v>
@@ -11724,7 +11721,7 @@
     </row>
     <row r="8" customHeight="1" spans="1:7">
       <c r="A8" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8" s="6">
         <v>7488</v>
@@ -11747,7 +11744,7 @@
     </row>
     <row r="9" customHeight="1" spans="1:7">
       <c r="A9" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9" s="6">
         <v>7666</v>
@@ -11770,7 +11767,7 @@
     </row>
     <row r="10" customHeight="1" spans="1:7">
       <c r="A10" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B10" s="6">
         <v>21896</v>
@@ -11793,7 +11790,7 @@
     </row>
     <row r="11" customHeight="1" spans="1:7">
       <c r="A11" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B11" s="6">
         <v>7608</v>
@@ -11816,7 +11813,7 @@
     </row>
     <row r="12" customHeight="1" spans="1:7">
       <c r="A12" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B12" s="6">
         <v>33263</v>
@@ -11839,7 +11836,7 @@
     </row>
     <row r="13" customHeight="1" spans="1:7">
       <c r="A13" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B13" s="6">
         <v>36207</v>
@@ -11862,7 +11859,7 @@
     </row>
     <row r="14" customHeight="1" spans="1:7">
       <c r="A14" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14" s="6">
         <v>19636</v>
@@ -11885,7 +11882,7 @@
     </row>
     <row r="15" customHeight="1" spans="1:7">
       <c r="A15" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B15" s="6">
         <v>12758</v>
@@ -11908,7 +11905,7 @@
     </row>
     <row r="16" customHeight="1" spans="1:7">
       <c r="A16" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B16" s="6">
         <v>9899</v>
@@ -11931,7 +11928,7 @@
     </row>
     <row r="17" customHeight="1" spans="1:7">
       <c r="A17" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B17" s="6">
         <v>13934</v>
@@ -11954,7 +11951,7 @@
     </row>
     <row r="18" customHeight="1" spans="1:7">
       <c r="A18" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" s="6">
         <v>12315</v>
@@ -11977,7 +11974,7 @@
     </row>
     <row r="19" customHeight="1" spans="1:7">
       <c r="A19" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B19" s="6">
         <v>9070</v>
@@ -12000,7 +11997,7 @@
     </row>
     <row r="20" customHeight="1" spans="1:7">
       <c r="A20" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B20" s="6">
         <v>11422</v>
@@ -12023,7 +12020,7 @@
     </row>
     <row r="21" customHeight="1" spans="1:7">
       <c r="A21" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B21" s="6">
         <v>7533</v>
@@ -12046,7 +12043,7 @@
     </row>
     <row r="22" customHeight="1" spans="1:7">
       <c r="A22" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B22" s="8">
         <v>9174</v>
@@ -12077,138 +12074,105 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="2" width="9" style="60" customWidth="1"/>
-    <col min="3" max="3" width="11" style="60" customWidth="1"/>
-    <col min="4" max="246" width="9" style="4"/>
+    <col min="1" max="1" width="9" style="60" customWidth="1"/>
+    <col min="2" max="2" width="11" style="60" customWidth="1"/>
+    <col min="3" max="245" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="61">
-        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="61">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="61" t="s">
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="61" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="61">
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="61" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="61">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="61">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="61">
-        <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="61">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="61" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="61">
-        <v>8</v>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="61" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="1" t="s">
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="61">
-        <v>9</v>
-      </c>
       <c r="B10" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="61" t="s">
         <v>6</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="61">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="61" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -12230,33 +12194,33 @@
   <sheetData>
     <row r="1" ht="15" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>239</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B2" s="2">
         <v>0.06</v>
@@ -12282,7 +12246,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B3" s="2">
         <v>0.3</v>
@@ -12308,7 +12272,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B4" s="2">
         <v>0.15</v>
@@ -12334,7 +12298,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B5" s="2">
         <v>0.06</v>
@@ -12360,7 +12324,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B6" s="2">
         <v>0.2</v>
@@ -12386,7 +12350,7 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B7" s="2">
         <v>0.08</v>
@@ -12412,7 +12376,7 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B8" s="2">
         <v>0.04</v>
@@ -12438,7 +12402,7 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B9" s="2">
         <v>0.14</v>
@@ -12464,7 +12428,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B10" s="2">
         <v>0.09</v>
@@ -12490,7 +12454,7 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B11" s="2">
         <v>0.06</v>
@@ -12516,7 +12480,7 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B12" s="2">
         <v>0.1</v>
@@ -12542,7 +12506,7 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B13" s="2">
         <v>0.09</v>
@@ -12568,7 +12532,7 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B14" s="2">
         <v>0.06</v>
@@ -12594,7 +12558,7 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B15" s="2">
         <v>0.1</v>
@@ -12620,7 +12584,7 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B16" s="2">
         <v>0.14</v>
@@ -12646,7 +12610,7 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B17" s="2">
         <v>0.07</v>
@@ -12672,7 +12636,7 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B18" s="2">
         <v>0.11</v>
@@ -12698,7 +12662,7 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B19" s="2">
         <v>0.07</v>
@@ -12724,7 +12688,7 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B20" s="2">
         <v>0.07</v>
@@ -12750,7 +12714,7 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B21" s="2">
         <v>0.07</v>
@@ -12776,7 +12740,7 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B22" s="2">
         <v>0.12</v>
@@ -12802,7 +12766,7 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B23" s="2">
         <v>0.11</v>
@@ -12828,7 +12792,7 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B24" s="2">
         <v>0.11</v>
@@ -12854,7 +12818,7 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B25" s="2">
         <v>0.29</v>
@@ -12880,7 +12844,7 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B26" s="2">
         <v>0.08</v>
@@ -12906,7 +12870,7 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B27" s="2">
         <v>0.25</v>
@@ -12932,7 +12896,7 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B28" s="2">
         <v>0.06</v>
@@ -12958,7 +12922,7 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B29" s="2">
         <v>0.08</v>
@@ -12984,7 +12948,7 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B30" s="2">
         <v>0.06</v>
@@ -13010,7 +12974,7 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B31" s="2">
         <v>0.2</v>
@@ -13036,7 +13000,7 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B32" s="2">
         <v>0.08</v>
@@ -13087,24 +13051,24 @@
   <sheetData>
     <row r="1" ht="15" customHeight="1" spans="1:5">
       <c r="A1" s="57" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="C1" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="58" t="s">
+      <c r="D1" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="E1" s="58" t="s">
         <v>12</v>
-      </c>
-      <c r="E1" s="58" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="59" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="59">
         <v>1486.05</v>
@@ -13121,7 +13085,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="59" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="59">
         <v>28.55</v>
@@ -13138,7 +13102,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="59" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="59">
         <v>3266.52</v>
@@ -13155,7 +13119,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="59" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="59">
         <v>465.07</v>
@@ -13172,7 +13136,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="59" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="59">
         <v>147.73</v>
@@ -13189,7 +13153,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="59" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" s="59">
         <v>930.49</v>
@@ -13206,7 +13170,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="59" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" s="59">
         <v>251.23</v>
@@ -13223,7 +13187,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="59" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" s="59">
         <v>75.66</v>
@@ -13240,7 +13204,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="59" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" s="59">
         <v>25.37</v>
@@ -13257,7 +13221,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="59" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" s="59">
         <v>70.06</v>
@@ -13274,7 +13238,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="59" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12" s="59">
         <v>525.67</v>
@@ -13291,7 +13255,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="59" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B13" s="59">
         <v>18.09</v>
@@ -13308,7 +13272,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="59" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B14" s="59">
         <v>26.21</v>
@@ -13325,7 +13289,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="59" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B15" s="59">
         <v>2.41</v>
@@ -13342,7 +13306,7 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="59" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B16" s="59">
         <v>29.52</v>
@@ -13359,7 +13323,7 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="59" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B17" s="59">
         <v>18.93</v>
@@ -13376,7 +13340,7 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="59" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B18" s="59">
         <v>679.87</v>
@@ -13393,7 +13357,7 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="59" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B19" s="59">
         <v>414.64</v>
@@ -13410,7 +13374,7 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="59" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B20" s="59">
         <v>40.98</v>
@@ -13427,7 +13391,7 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="59" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B21" s="59">
         <v>26.34</v>
@@ -13444,7 +13408,7 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="59" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B22" s="59">
         <v>18.77</v>
@@ -13484,13 +13448,13 @@
   <sheetData>
     <row r="1" s="57" customFormat="1" ht="15" customHeight="1" spans="1:3">
       <c r="A1" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="C1" s="35" t="s">
         <v>36</v>
-      </c>
-      <c r="C1" s="35" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:3">
@@ -13710,13 +13674,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="C1" s="35" t="s">
         <v>39</v>
-      </c>
-      <c r="C1" s="35" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -13829,16 +13793,16 @@
   <sheetData>
     <row r="1" ht="14.25" spans="1:4">
       <c r="A1" s="52" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B1" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="52" t="s">
+      <c r="D1" s="52" t="s">
         <v>42</v>
-      </c>
-      <c r="D1" s="52" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -14004,13 +13968,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="36" t="s">
-        <v>36</v>
-      </c>
       <c r="C1" s="36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -14209,34 +14173,34 @@
   <sheetData>
     <row r="1" ht="15" spans="1:6">
       <c r="A1" s="52" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B1" s="52"/>
       <c r="C1" s="52"/>
       <c r="D1" s="52" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E1" s="52"/>
       <c r="F1" s="52"/>
     </row>
     <row r="2" ht="15" spans="1:6">
       <c r="A2" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="C2" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="53" t="s">
+      <c r="D2" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="53" t="s">
+      <c r="E2" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="53" t="s">
+      <c r="F2" s="53" t="s">
         <v>51</v>
-      </c>
-      <c r="F2" s="53" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -14576,27 +14540,27 @@
   <sheetData>
     <row r="1" ht="15" spans="1:6">
       <c r="A1" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="42" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" s="42" t="s">
-        <v>36</v>
-      </c>
-      <c r="D1" s="42" t="s">
+      <c r="E1" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="E1" s="42" t="s">
-        <v>55</v>
-      </c>
       <c r="F1" s="42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="44" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B2" s="44">
         <v>60.6725</v>
@@ -14616,7 +14580,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="44" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B3" s="44">
         <v>25.5983</v>
@@ -14636,7 +14600,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="44" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B4" s="44">
         <v>90.8727</v>
@@ -14656,7 +14620,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="44" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B5" s="44">
         <v>90.4619</v>
@@ -14676,7 +14640,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="44" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B6" s="44">
         <v>53.4565</v>
@@ -14696,7 +14660,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="44" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B7" s="44">
         <v>92.2256</v>
@@ -14716,7 +14680,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="44" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B8" s="44">
         <v>60.6725</v>
@@ -14736,7 +14700,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="44" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B9" s="44">
         <v>115.1196</v>
@@ -14756,7 +14720,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="44" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B10" s="44">
         <v>38.9856</v>
@@ -14776,7 +14740,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="44" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B11" s="44">
         <v>28.9197</v>
@@ -14796,7 +14760,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="44" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B12" s="44">
         <v>56.7443</v>
@@ -14816,7 +14780,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="44" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B13" s="44">
         <v>52.1203</v>
@@ -14836,7 +14800,7 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="44" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B14" s="44">
         <v>52.8731</v>
@@ -14856,7 +14820,7 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="44" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B15" s="44">
         <v>54.4389</v>
@@ -14876,7 +14840,7 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="44" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B16" s="44">
         <v>46.3793</v>
@@ -14896,7 +14860,7 @@
     </row>
     <row r="17" ht="15" spans="1:6">
       <c r="A17" s="45" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B17" s="45">
         <v>79.4863</v>
